--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835758</v>
+        <v>111835718</v>
       </c>
       <c r="B3" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,26 +812,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,13 +844,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471087.4311846643</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R3" t="n">
-        <v>6810390.807424263</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -893,7 +898,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835718</v>
+        <v>111835826</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,13 +964,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>471101.0270993827</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R4" t="n">
-        <v>6810411.753755242</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1006,6 +1010,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1148,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835826</v>
+        <v>111835758</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,31 +1173,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470915.776864712</v>
+        <v>471087.4311846643</v>
       </c>
       <c r="R6" t="n">
-        <v>6810385.536630718</v>
+        <v>6810390.807424263</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1244,17 +1248,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835838</v>
+        <v>111835826</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470914.6782613794</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R2" t="n">
-        <v>6810368.79402096</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -771,13 +776,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835718</v>
+        <v>111835838</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,31 +821,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471101.0270993827</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R3" t="n">
-        <v>6810411.753755242</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -898,6 +902,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -916,7 +921,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835826</v>
+        <v>111835718</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -964,13 +969,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470915.776864712</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R4" t="n">
-        <v>6810385.536630718</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1010,11 +1015,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835826</v>
+        <v>111835718</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470915.776864712</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R2" t="n">
-        <v>6810385.536630718</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -774,11 +774,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835838</v>
+        <v>111835758</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77550</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -848,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>470914.6782613794</v>
+        <v>471087.4311846643</v>
       </c>
       <c r="R3" t="n">
-        <v>6810368.79402096</v>
+        <v>6810390.807424263</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -921,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835718</v>
+        <v>111835826</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -969,13 +964,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>471101.0270993827</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R4" t="n">
-        <v>6810411.753755242</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1015,6 +1010,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1157,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835758</v>
+        <v>111835838</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,21 +1173,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>471087.4311846643</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R6" t="n">
-        <v>6810390.807424263</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835718</v>
+        <v>111835745</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>471101.0270993827</v>
+        <v>471152.5480076601</v>
       </c>
       <c r="R2" t="n">
-        <v>6810411.753755242</v>
+        <v>6810381.652036018</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -916,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835826</v>
+        <v>111835718</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -964,13 +960,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470915.776864712</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R4" t="n">
-        <v>6810385.536630718</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1010,11 +1006,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1041,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835745</v>
+        <v>111835838</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>471152.5480076601</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R5" t="n">
-        <v>6810381.652036018</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1157,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835838</v>
+        <v>111835826</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,26 +1164,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1200,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470914.6782613794</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R6" t="n">
-        <v>6810368.79402096</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1248,13 +1244,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835745</v>
+        <v>111835718</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>471152.5480076601</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R2" t="n">
-        <v>6810381.652036018</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -912,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835718</v>
+        <v>111835826</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,13 +964,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>471101.0270993827</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R4" t="n">
-        <v>6810411.753755242</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1006,6 +1010,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1032,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835838</v>
+        <v>111835745</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1057,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1084,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>470914.6782613794</v>
+        <v>471152.5480076601</v>
       </c>
       <c r="R5" t="n">
-        <v>6810368.79402096</v>
+        <v>6810381.652036018</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835826</v>
+        <v>111835838</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,31 +1173,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470915.776864712</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R6" t="n">
-        <v>6810385.536630718</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1244,17 +1248,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835718</v>
+        <v>111835838</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>471101.0270993827</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R2" t="n">
-        <v>6810411.753755242</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835758</v>
+        <v>111835718</v>
       </c>
       <c r="B3" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,26 +812,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,13 +844,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471087.4311846643</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R3" t="n">
-        <v>6810390.807424263</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -897,7 +898,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835826</v>
+        <v>111835745</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,31 +932,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470915.776864712</v>
+        <v>471152.5480076601</v>
       </c>
       <c r="R4" t="n">
-        <v>6810385.536630718</v>
+        <v>6810381.652036018</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1012,17 +1007,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1041,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835745</v>
+        <v>111835758</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>471152.5480076601</v>
+        <v>471087.4311846643</v>
       </c>
       <c r="R5" t="n">
-        <v>6810381.652036018</v>
+        <v>6810390.807424263</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1157,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835838</v>
+        <v>111835826</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,26 +1164,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1200,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470914.6782613794</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R6" t="n">
-        <v>6810368.79402096</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1248,13 +1244,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835838</v>
+        <v>111835758</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>77550</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470914.6782613794</v>
+        <v>471087.4311846643</v>
       </c>
       <c r="R2" t="n">
-        <v>6810368.79402096</v>
+        <v>6810390.807424263</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835745</v>
+        <v>111835826</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,26 +932,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -959,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>471152.5480076601</v>
+        <v>470915.776864712</v>
       </c>
       <c r="R4" t="n">
-        <v>6810381.652036018</v>
+        <v>6810385.536630718</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1007,13 +1012,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1032,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835758</v>
+        <v>111835838</v>
       </c>
       <c r="B5" t="n">
-        <v>77550</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1057,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1084,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>471087.4311846643</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R5" t="n">
-        <v>6810390.807424263</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835826</v>
+        <v>111835745</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,31 +1173,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470915.776864712</v>
+        <v>471152.5480076601</v>
       </c>
       <c r="R6" t="n">
-        <v>6810385.536630718</v>
+        <v>6810381.652036018</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1244,17 +1248,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835758</v>
+        <v>111835718</v>
       </c>
       <c r="B2" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>471087.4311846643</v>
+        <v>471101.0270993827</v>
       </c>
       <c r="R2" t="n">
-        <v>6810390.807424263</v>
+        <v>6810411.753755242</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835718</v>
+        <v>111835745</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,31 +816,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471101.0270993827</v>
+        <v>471152.5480076601</v>
       </c>
       <c r="R3" t="n">
-        <v>6810411.753755242</v>
+        <v>6810381.652036018</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -898,6 +897,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835838</v>
+        <v>111835758</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>77550</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,21 +1057,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>470914.6782613794</v>
+        <v>471087.4311846643</v>
       </c>
       <c r="R5" t="n">
-        <v>6810368.79402096</v>
+        <v>6810390.807424263</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835745</v>
+        <v>111835838</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,21 +1173,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>471152.5480076601</v>
+        <v>470914.6782613794</v>
       </c>
       <c r="R6" t="n">
-        <v>6810381.652036018</v>
+        <v>6810368.79402096</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835718</v>
+        <v>111835826</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>471101.0270993827</v>
+        <v>470916</v>
       </c>
       <c r="R2" t="n">
-        <v>6810411.753755242</v>
+        <v>6810386</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,19 +761,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -843,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471152.5480076601</v>
+        <v>471153</v>
       </c>
       <c r="R3" t="n">
-        <v>6810381.652036018</v>
+        <v>6810382</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -876,19 +871,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,10 +901,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835826</v>
+        <v>111835838</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,31 +917,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470915.776864712</v>
+        <v>470915</v>
       </c>
       <c r="R4" t="n">
-        <v>6810385.536630718</v>
+        <v>6810369</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -997,32 +977,18 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1041,10 +1007,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835758</v>
+        <v>111835718</v>
       </c>
       <c r="B5" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,26 +1023,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1084,13 +1055,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>471087.4311846643</v>
+        <v>471101</v>
       </c>
       <c r="R5" t="n">
-        <v>6810390.807424263</v>
+        <v>6810412</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1117,28 +1088,17 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1157,10 +1117,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835838</v>
+        <v>111835758</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,21 +1133,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1200,10 +1160,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>470914.6782613794</v>
+        <v>471087</v>
       </c>
       <c r="R6" t="n">
-        <v>6810368.79402096</v>
+        <v>6810391</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1233,19 +1193,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1316,10 +1266,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>471072.5601776831</v>
+        <v>471073</v>
       </c>
       <c r="R7" t="n">
-        <v>6810389.495105502</v>
+        <v>6810389</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1349,19 +1299,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 33366-2023.xlsx
+++ b/artfynd/A 33366-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111835826</v>
+        <v>111835758</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470916</v>
+        <v>471087</v>
       </c>
       <c r="R2" t="n">
-        <v>6810386</v>
+        <v>6810391</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,17 +761,13 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>även hackspettbo, troligen av tret</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -795,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111835745</v>
+        <v>111835718</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,26 +802,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>471153</v>
+        <v>471101</v>
       </c>
       <c r="R3" t="n">
-        <v>6810382</v>
+        <v>6810412</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -882,7 +878,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -901,10 +896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111835838</v>
+        <v>111835826</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -917,26 +912,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470915</v>
+        <v>470916</v>
       </c>
       <c r="R4" t="n">
-        <v>6810369</v>
+        <v>6810386</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -982,13 +982,17 @@
           <t>2023-09-01</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även hackspettbo, troligen av tret</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1007,10 +1011,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111835718</v>
+        <v>111835745</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1023,31 +1027,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1055,13 +1054,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>471101</v>
+        <v>471153</v>
       </c>
       <c r="R5" t="n">
-        <v>6810412</v>
+        <v>6810382</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1099,6 +1098,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835758</v>
+        <v>111835838</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,21 +1133,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>471087</v>
+        <v>470915</v>
       </c>
       <c r="R6" t="n">
-        <v>6810391</v>
+        <v>6810369</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1226,7 +1226,7 @@
         <v>111835766</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
